--- a/CS320-Spring2023Calendar(2-8-23).xlsx
+++ b/CS320-Spring2023Calendar(2-8-23).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FC64AA-BE73-4EDA-BF04-FFFE8BD882C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B11D90-9C6E-4F19-B4A7-396452362AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="192" yWindow="1086" windowWidth="22848" windowHeight="11874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="122">
   <si>
     <t>Monday</t>
   </si>
@@ -914,34 +914,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Team Session:
-Textual Analysis
-(in class)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-P??: Team Use Cases due 7:00 am
-(Google Doc)</t>
-    </r>
-  </si>
-  <si>
     <t>Individual Project
 MS1 Baseline Prototype</t>
   </si>
@@ -1066,6 +1038,53 @@
       <t>Take Home Exam
 (handed out)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Team Session:
+Textual Analysis
+(in class)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P??: Team Use Cases due 7:00 am
+(Google Doc)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Version Control II, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lab 3:
+GitHub, Git, and eGit
+Part II
+(in class)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lecture 8:
+Requirements
+(UD: Chapter 9)
+ Requirements Exercise
+(in class)</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2310,35 +2329,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2346,52 +2341,67 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2756,17 +2766,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="53.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
@@ -2796,10 +2806,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="153">
+      <c r="A3" s="169">
         <v>15</v>
       </c>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="152" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="101">
@@ -2831,8 +2841,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="152"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="103" t="s">
         <v>8</v>
       </c>
@@ -2858,11 +2868,11 @@
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="152">
+      <c r="A5" s="160">
         <f>A3 - 1</f>
         <v>14</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="149" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="7">
@@ -2894,8 +2904,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="154"/>
-      <c r="B6" s="158"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="61"/>
       <c r="D6" s="129" t="s">
         <v>53</v>
@@ -2913,11 +2923,11 @@
       <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="155">
+      <c r="A7" s="162">
         <f>A5 - 1</f>
         <v>13</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="170" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="44">
@@ -2950,8 +2960,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="156"/>
-      <c r="B8" s="160"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="35" t="s">
         <v>70</v>
       </c>
@@ -2971,11 +2981,11 @@
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="156">
+      <c r="A9" s="155">
         <f>A7 - 1</f>
         <v>12</v>
       </c>
-      <c r="B9" s="160"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="14">
         <f>I7 + 1</f>
         <v>12</v>
@@ -3006,8 +3016,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="156"/>
-      <c r="B10" s="160"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="35" t="s">
         <v>50</v>
       </c>
@@ -3025,11 +3035,11 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="156">
+      <c r="A11" s="155">
         <f>A9 -1</f>
         <v>11</v>
       </c>
-      <c r="B11" s="160"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="17">
         <f>I9 + 1</f>
         <v>19</v>
@@ -3060,8 +3070,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="90.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="156"/>
-      <c r="B12" s="160"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="33"/>
       <c r="D12" s="12" t="s">
         <v>34</v>
@@ -3077,11 +3087,11 @@
       <c r="I12" s="114"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="156">
+      <c r="A13" s="155">
         <f xml:space="preserve"> A11 - 1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="147" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="17">
@@ -3113,8 +3123,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="161"/>
-      <c r="B14" s="167"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="33"/>
       <c r="D14" s="126" t="s">
         <v>32</v>
@@ -3130,11 +3140,11 @@
       <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="153">
+      <c r="A15" s="169">
         <f>A13 - 1</f>
         <v>9</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="65">
@@ -3167,8 +3177,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="154"/>
-      <c r="B16" s="158"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="68" t="s">
         <v>55</v>
       </c>
@@ -3313,19 +3323,19 @@
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="147" t="str">
+      <c r="A28" s="164" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2023 Schedule
 (as of 1-21-2023, subject to change)</v>
       </c>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="149"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="166"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="str">
@@ -3363,11 +3373,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="150">
+      <c r="A30" s="167">
         <f>A15</f>
         <v>9</v>
       </c>
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="152" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="78">
@@ -3400,8 +3410,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="45.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="151"/>
-      <c r="B31" s="157"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="78" t="str">
         <f>C16</f>
         <v xml:space="preserve"> </v>
@@ -3435,11 +3445,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="151">
+      <c r="A32" s="168">
         <f xml:space="preserve"> A30 - 1</f>
         <v>8</v>
       </c>
-      <c r="B32" s="157"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="100">
         <f>I15 + 1</f>
         <v>12</v>
@@ -3470,8 +3480,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="152"/>
-      <c r="B33" s="157"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="35" t="s">
         <v>60</v>
       </c>
@@ -3489,11 +3499,11 @@
       <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="152">
+      <c r="A34" s="160">
         <f>A32 - 1</f>
         <v>7</v>
       </c>
-      <c r="B34" s="157"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="20">
         <f>I32 + 1</f>
         <v>19</v>
@@ -3524,8 +3534,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="120.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="152"/>
-      <c r="B35" s="157"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="59"/>
       <c r="D35" s="28" t="s">
         <v>37</v>
@@ -3541,11 +3551,11 @@
       <c r="I35" s="84"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="152">
+      <c r="A36" s="160">
         <f>A34 - 1</f>
         <v>6</v>
       </c>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="154" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="7">
@@ -3577,8 +3587,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="154"/>
-      <c r="B37" s="158"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="150"/>
       <c r="C37" s="83"/>
       <c r="D37" s="23" t="s">
         <v>29</v>
@@ -3596,11 +3606,11 @@
       <c r="I37" s="117"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="155">
+      <c r="A38" s="162">
         <f>A36 -1</f>
         <v>5</v>
       </c>
-      <c r="B38" s="160" t="s">
+      <c r="B38" s="151" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="82">
@@ -3633,8 +3643,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="89.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="156"/>
-      <c r="B39" s="160"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="86"/>
       <c r="D39" s="28" t="s">
         <v>38</v>
@@ -3654,11 +3664,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="165">
+      <c r="A40" s="163">
         <f>A38 -1</f>
         <v>4</v>
       </c>
-      <c r="B40" s="160"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="98">
         <f>I38 + 1</f>
         <v>9</v>
@@ -3689,8 +3699,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="156"/>
-      <c r="B41" s="160"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="103" t="s">
         <v>6</v>
       </c>
@@ -3708,11 +3718,11 @@
       <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="156">
+      <c r="A42" s="155">
         <f>A40 -1</f>
         <v>3</v>
       </c>
-      <c r="B42" s="160"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="31">
         <f>I40 + 1</f>
         <v>16</v>
@@ -3743,8 +3753,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="156"/>
-      <c r="B43" s="160"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="33"/>
       <c r="D43" s="131"/>
       <c r="E43" s="91" t="s">
@@ -3760,11 +3770,11 @@
       <c r="I43" s="32"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="156">
+      <c r="A44" s="155">
         <f>A42 -1</f>
         <v>2</v>
       </c>
-      <c r="B44" s="160"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="33">
         <f>I42 + 1</f>
         <v>23</v>
@@ -3795,8 +3805,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="161"/>
-      <c r="B45" s="160"/>
+      <c r="A45" s="156"/>
+      <c r="B45" s="151"/>
       <c r="C45" s="79"/>
       <c r="D45" s="50"/>
       <c r="E45" s="48"/>
@@ -3810,11 +3820,11 @@
       <c r="I45" s="47"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="156">
+      <c r="A46" s="155">
         <f>A44 -1</f>
         <v>1</v>
       </c>
-      <c r="B46" s="166" t="s">
+      <c r="B46" s="147" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="16">
@@ -3846,8 +3856,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="54.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="162"/>
-      <c r="B47" s="167"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="115"/>
       <c r="D47" s="7" t="s">
         <v>7</v>
@@ -3865,10 +3875,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="163" t="s">
+      <c r="A48" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="149" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="29">
@@ -3901,8 +3911,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="134.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="164"/>
-      <c r="B49" s="158"/>
+      <c r="A49" s="159"/>
+      <c r="B49" s="150"/>
       <c r="C49" s="87" t="s">
         <v>44</v>
       </c>
@@ -3920,22 +3930,6 @@
     <row r="50" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -3949,6 +3943,22 @@
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3962,8 +3972,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3981,17 +3991,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="53.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
@@ -4021,10 +4031,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="153">
+      <c r="A3" s="169">
         <v>15</v>
       </c>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="152" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="101">
@@ -4056,8 +4066,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="152"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="103" t="s">
         <v>8</v>
       </c>
@@ -4083,11 +4093,11 @@
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="152">
+      <c r="A5" s="160">
         <f>A3 - 1</f>
         <v>14</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="149" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="7">
@@ -4119,8 +4129,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="154"/>
-      <c r="B6" s="158"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="61"/>
       <c r="D6" s="129" t="s">
         <v>53</v>
@@ -4129,8 +4139,8 @@
       <c r="F6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="173"/>
-      <c r="H6" s="174" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="12" t="s">
         <v>100</v>
       </c>
       <c r="I6" s="34" t="s">
@@ -4138,11 +4148,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="155">
+      <c r="A7" s="162">
         <f>A5 - 1</f>
         <v>13</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="170" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="44">
@@ -4175,10 +4185,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="78.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="156"/>
-      <c r="B8" s="160"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>101</v>
@@ -4194,11 +4204,11 @@
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="156">
+      <c r="A9" s="155">
         <f>A7 - 1</f>
         <v>12</v>
       </c>
-      <c r="B9" s="160"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="14">
         <f>I7 + 1</f>
         <v>12</v>
@@ -4228,33 +4238,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="156"/>
-      <c r="B10" s="160"/>
+    <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="155"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="172"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="134"/>
       <c r="F10" s="146" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G10" s="60" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="156">
+      <c r="A11" s="155">
         <f>A9 -1</f>
         <v>11</v>
       </c>
-      <c r="B11" s="160"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="17">
         <f>I9 + 1</f>
         <v>19</v>
@@ -4284,30 +4294,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="156"/>
-      <c r="B12" s="160"/>
+    <row r="12" spans="1:10" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="155"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="145"/>
       <c r="D12" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="76"/>
       <c r="H12" s="56" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I12" s="114"/>
       <c r="J12" s="144"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="156">
+      <c r="A13" s="155">
         <f xml:space="preserve"> A11 - 1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="147" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="17">
@@ -4338,29 +4348,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="161"/>
-      <c r="B14" s="167"/>
+    <row r="14" spans="1:10" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="156"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="33"/>
       <c r="D14" s="56" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E14" s="127"/>
       <c r="F14" s="57" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G14" s="122"/>
       <c r="H14" s="171" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="153">
+      <c r="A15" s="169">
         <f>A13 - 1</f>
         <v>9</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="65">
@@ -4392,14 +4402,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="103.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="154"/>
-      <c r="B16" s="158"/>
+    <row r="16" spans="1:10" ht="77.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="161"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="68" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E16" s="90" t="s">
         <v>55</v>
@@ -4421,7 +4431,7 @@
 BREAK</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="9.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -4460,19 +4470,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="147" t="str">
+      <c r="A20" s="164" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2023 Schedule
 (as of 2-8-23-2023, subject to change)</v>
       </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="166"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="str">
@@ -4481,40 +4491,40 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="str">
-        <f>C2</f>
+        <f t="shared" ref="C21:I21" si="3">C2</f>
         <v>Sunday</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>D2</f>
+        <f t="shared" si="3"/>
         <v>Monday</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>E2</f>
+        <f t="shared" si="3"/>
         <v>Tuesday</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>F2</f>
+        <f t="shared" si="3"/>
         <v>Wednesday</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>G2</f>
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>H2</f>
+        <f t="shared" si="3"/>
         <v>Friday</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>I2</f>
+        <f t="shared" si="3"/>
         <v>Saturday</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="151">
+      <c r="A22" s="168">
         <f>A15 - 1</f>
         <v>8</v>
       </c>
-      <c r="B22" s="157"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="100">
         <f>I15 + 1</f>
         <v>12</v>
@@ -4524,34 +4534,34 @@
         <v>13</v>
       </c>
       <c r="E22" s="18">
-        <f t="shared" ref="E22:I22" si="3">D22 + 1</f>
+        <f t="shared" ref="E22:I22" si="4">D22 + 1</f>
         <v>14</v>
       </c>
       <c r="F22" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G22" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="H22" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="I22" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="152"/>
-      <c r="B23" s="157"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>109</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
@@ -4566,11 +4576,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="152">
+      <c r="A24" s="160">
         <f>A22 - 1</f>
         <v>7</v>
       </c>
-      <c r="B24" s="157"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="20">
         <f>I22 + 1</f>
         <v>19</v>
@@ -4580,32 +4590,32 @@
         <v>20</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" ref="E24:I24" si="4">D24 + 1</f>
+        <f t="shared" ref="E24:I24" si="5">D24 + 1</f>
         <v>21</v>
       </c>
       <c r="F24" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="H24" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="80.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="152"/>
-      <c r="B25" s="157"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="59"/>
       <c r="D25" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="71"/>
       <c r="F25" s="6" t="s">
@@ -4620,11 +4630,11 @@
       <c r="I25" s="139"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="152">
+      <c r="A26" s="160">
         <f>A24 - 1</f>
         <v>6</v>
       </c>
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="154" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="7">
@@ -4636,19 +4646,19 @@
         <v>27</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" ref="E26:I28" si="5">D26 + 1</f>
+        <f t="shared" ref="E26:I28" si="6">D26 + 1</f>
         <v>28</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="G26" s="118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="I26" s="116">
@@ -4656,8 +4666,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="154"/>
-      <c r="B27" s="158"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="68"/>
       <c r="D27" s="9" t="s">
         <v>30</v>
@@ -4675,11 +4685,11 @@
       <c r="I27" s="117"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="155">
+      <c r="A28" s="162">
         <f>A26 -1</f>
         <v>5</v>
       </c>
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="151" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="82">
@@ -4691,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F28" s="64">
@@ -4699,27 +4709,27 @@
         <v>5</v>
       </c>
       <c r="G28" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="H28" s="138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I28" s="99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="156"/>
-      <c r="B29" s="160"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="140"/>
       <c r="D29" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="135" t="s">
         <v>92</v>
@@ -4733,11 +4743,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="165">
+      <c r="A30" s="163">
         <f>A28 -1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="160"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="98">
         <f>I28 + 1</f>
         <v>9</v>
@@ -4747,29 +4757,29 @@
         <v>10</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" ref="E30:I30" si="6">D30 + 1</f>
+        <f t="shared" ref="E30:I30" si="7">D30 + 1</f>
         <v>11</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="G30" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="H30" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="I30" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="156"/>
-      <c r="B31" s="160"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="103" t="s">
         <v>6</v>
       </c>
@@ -4778,20 +4788,20 @@
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="156">
+      <c r="A32" s="155">
         <f>A30 -1</f>
         <v>3</v>
       </c>
-      <c r="B32" s="160"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="31">
         <f>I30 + 1</f>
         <v>16</v>
@@ -4801,29 +4811,29 @@
         <v>17</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" ref="E32:I32" si="7">D32 + 1</f>
+        <f t="shared" ref="E32:I32" si="8">D32 + 1</f>
         <v>18</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="G32" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H32" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="156"/>
-      <c r="B33" s="160"/>
+      <c r="A33" s="155"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="33"/>
       <c r="D33" s="12" t="s">
         <v>7</v>
@@ -4839,11 +4849,11 @@
       <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="156">
+      <c r="A34" s="155">
         <f>A32 -1</f>
         <v>2</v>
       </c>
-      <c r="B34" s="160"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="33">
         <f>I32 + 1</f>
         <v>23</v>
@@ -4853,32 +4863,32 @@
         <v>24</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" ref="E34:I36" si="8">D34 + 1</f>
+        <f t="shared" ref="E34:I36" si="9">D34 + 1</f>
         <v>25</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="161"/>
-      <c r="B35" s="160"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="79"/>
       <c r="D35" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="50" t="s">
@@ -4891,11 +4901,11 @@
       <c r="I35" s="47"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="156">
+      <c r="A36" s="155">
         <f>A34 -1</f>
         <v>1</v>
       </c>
-      <c r="B36" s="166" t="s">
+      <c r="B36" s="147" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="16">
@@ -4906,15 +4916,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F36" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="H36" s="4">
@@ -4922,13 +4932,13 @@
         <v>5</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="162"/>
-      <c r="B37" s="167"/>
+      <c r="A37" s="157"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="115"/>
       <c r="D37" s="7" t="s">
         <v>7</v>
@@ -4942,14 +4952,14 @@
         <v>62</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="157" t="s">
+      <c r="B38" s="149" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="29">
@@ -4957,42 +4967,42 @@
         <v>7</v>
       </c>
       <c r="D38" s="18">
-        <f t="shared" ref="D38:I38" si="9">C38 + 1</f>
+        <f t="shared" ref="D38:I38" si="10">C38 + 1</f>
         <v>8</v>
       </c>
       <c r="E38" s="74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="F38" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="G38" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="H38" s="110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="I38" s="111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="164"/>
-      <c r="B39" s="158"/>
+      <c r="A39" s="159"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>117</v>
       </c>
       <c r="E39" s="88"/>
       <c r="F39" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="112"/>
@@ -5001,6 +5011,19 @@
     <row r="40" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
@@ -5016,19 +5039,6 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5058,17 +5068,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="53.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
@@ -5098,10 +5108,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="153">
+      <c r="A3" s="169">
         <v>15</v>
       </c>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="152" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="101">
@@ -5133,8 +5143,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="152"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="103" t="s">
         <v>8</v>
       </c>
@@ -5160,11 +5170,11 @@
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="152">
+      <c r="A5" s="160">
         <f>A3 - 1</f>
         <v>14</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="149" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="7">
@@ -5196,8 +5206,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="154"/>
-      <c r="B6" s="158"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="61"/>
       <c r="D6" s="55" t="s">
         <v>53</v>
@@ -5215,11 +5225,11 @@
       <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="155">
+      <c r="A7" s="162">
         <f>A5 - 1</f>
         <v>13</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="170" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="44">
@@ -5252,8 +5262,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="156"/>
-      <c r="B8" s="160"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="35" t="s">
         <v>70</v>
       </c>
@@ -5271,11 +5281,11 @@
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="156">
+      <c r="A9" s="155">
         <f>A7 - 1</f>
         <v>12</v>
       </c>
-      <c r="B9" s="160"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="14">
         <f>I7 + 1</f>
         <v>13</v>
@@ -5306,8 +5316,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="90.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="156"/>
-      <c r="B10" s="160"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="60" t="s">
         <v>40</v>
       </c>
@@ -5325,11 +5335,11 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="156">
+      <c r="A11" s="155">
         <f>A9 -1</f>
         <v>11</v>
       </c>
-      <c r="B11" s="160"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="17">
         <f>I9 + 1</f>
         <v>20</v>
@@ -5360,8 +5370,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="90.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="156"/>
-      <c r="B12" s="160"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="35" t="s">
         <v>50</v>
       </c>
@@ -5379,11 +5389,11 @@
       <c r="I12" s="114"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="156">
+      <c r="A13" s="155">
         <f xml:space="preserve"> A11 - 1</f>
         <v>10</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="147" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="17">
@@ -5415,8 +5425,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="107.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="161"/>
-      <c r="B14" s="167"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="33"/>
       <c r="D14" s="92" t="s">
         <v>32</v>
@@ -5432,11 +5442,11 @@
       <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="153">
+      <c r="A15" s="169">
         <f>A13 - 1</f>
         <v>9</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="65">
@@ -5469,8 +5479,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="154"/>
-      <c r="B16" s="158"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="68" t="s">
         <v>55</v>
       </c>
@@ -5615,19 +5625,19 @@
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="147" t="str">
+      <c r="A28" s="164" t="str">
         <f>A1</f>
         <v>CS320: SW Engineering - Spring 2022 Schedule
 (as of 4-14-2022, subject to change)</v>
       </c>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="149"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="166"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="str">
@@ -5665,11 +5675,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="150">
+      <c r="A30" s="167">
         <f>A15</f>
         <v>9</v>
       </c>
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="152" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="78">
@@ -5702,8 +5712,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="45.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="151"/>
-      <c r="B31" s="157"/>
+      <c r="A31" s="168"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="78" t="str">
         <f>C16</f>
         <v xml:space="preserve"> </v>
@@ -5741,11 +5751,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="151">
+      <c r="A32" s="168">
         <f xml:space="preserve"> A30 - 1</f>
         <v>8</v>
       </c>
-      <c r="B32" s="157"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="100">
         <f>I15 + 1</f>
         <v>13</v>
@@ -5776,8 +5786,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="152"/>
-      <c r="B33" s="157"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="35" t="s">
         <v>60</v>
       </c>
@@ -5795,11 +5805,11 @@
       <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="152">
+      <c r="A34" s="160">
         <f>A32 - 1</f>
         <v>7</v>
       </c>
-      <c r="B34" s="157"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="20">
         <f>I32 + 1</f>
         <v>20</v>
@@ -5830,8 +5840,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="117.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="152"/>
-      <c r="B35" s="157"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="59"/>
       <c r="D35" s="28" t="s">
         <v>37</v>
@@ -5851,11 +5861,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="152">
+      <c r="A36" s="160">
         <f>A34 - 1</f>
         <v>6</v>
       </c>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="154" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="7">
@@ -5887,8 +5897,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="154"/>
-      <c r="B37" s="158"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="150"/>
       <c r="C37" s="87" t="s">
         <v>84</v>
       </c>
@@ -5910,11 +5920,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="155">
+      <c r="A38" s="162">
         <f>A36 -1</f>
         <v>5</v>
       </c>
-      <c r="B38" s="160" t="s">
+      <c r="B38" s="151" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="82">
@@ -5947,8 +5957,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="89.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="156"/>
-      <c r="B39" s="160"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="133" t="s">
         <v>86</v>
       </c>
@@ -5966,11 +5976,11 @@
       <c r="I39" s="32"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="165">
+      <c r="A40" s="163">
         <f>A38 -1</f>
         <v>4</v>
       </c>
-      <c r="B40" s="160"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="85">
         <f>I38 + 1</f>
         <v>10</v>
@@ -6001,8 +6011,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="156"/>
-      <c r="B41" s="160"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="33"/>
       <c r="D41" s="31" t="s">
         <v>7</v>
@@ -6020,11 +6030,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="156">
+      <c r="A42" s="155">
         <f>A40 -1</f>
         <v>3</v>
       </c>
-      <c r="B42" s="160"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="98">
         <f>I40 + 1</f>
         <v>17</v>
@@ -6055,8 +6065,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="156"/>
-      <c r="B43" s="160"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="103" t="s">
         <v>6</v>
       </c>
@@ -6074,11 +6084,11 @@
       <c r="I43" s="32"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="156">
+      <c r="A44" s="155">
         <f>A42 -1</f>
         <v>2</v>
       </c>
-      <c r="B44" s="160"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="33">
         <f>I42 + 1</f>
         <v>24</v>
@@ -6109,8 +6119,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="161"/>
-      <c r="B45" s="160"/>
+      <c r="A45" s="156"/>
+      <c r="B45" s="151"/>
       <c r="C45" s="79"/>
       <c r="D45" s="49" t="s">
         <v>31</v>
@@ -6126,11 +6136,11 @@
       <c r="I45" s="47"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="153">
+      <c r="A46" s="169">
         <f>A44 -1</f>
         <v>1</v>
       </c>
-      <c r="B46" s="168" t="s">
+      <c r="B46" s="152" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="29">
@@ -6162,8 +6172,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="54.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="152"/>
-      <c r="B47" s="157"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="149"/>
       <c r="C47" s="30"/>
       <c r="D47" s="6" t="s">
         <v>7</v>
@@ -6181,10 +6191,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="163" t="s">
+      <c r="A48" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="157"/>
+      <c r="B48" s="149"/>
       <c r="C48" s="20">
         <f>I46 + 1</f>
         <v>8</v>
@@ -6215,8 +6225,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="134.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="164"/>
-      <c r="B49" s="158"/>
+      <c r="A49" s="159"/>
+      <c r="B49" s="150"/>
       <c r="C49" s="87" t="s">
         <v>44</v>
       </c>
@@ -6234,6 +6244,18 @@
     <row r="50" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A46:A47"/>
@@ -6250,18 +6272,6 @@
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
